--- a/function/functionList_appCore.xlsx
+++ b/function/functionList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB5ABF-5D99-4666-A213-1F9A28B5B487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881BD88-8AB9-486A-963A-75FC3456ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco funzioni" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Codice</t>
   </si>
@@ -88,6 +88,35 @@
   </si>
   <si>
     <t>Ricerca Cliente</t>
+  </si>
+  <si>
+    <t>**Backend</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: dividere per Area (Backend,STOCK, ODV, CRM,… ecc)?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -126,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -135,21 +164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -161,99 +175,83 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,46 +533,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="53.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="6" max="6" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -584,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -618,7 +620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -635,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -652,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -669,21 +671,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/function/functionList_appCore.xlsx
+++ b/function/functionList_appCore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881BD88-8AB9-486A-963A-75FC3456ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD532366-FA67-4A1F-8325-CE3AB218BF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Codice</t>
   </si>
@@ -117,6 +117,12 @@
       </rPr>
       <t>: dividere per Area (Backend,STOCK, ODV, CRM,… ecc)?</t>
     </r>
+  </si>
+  <si>
+    <t>YCSTK</t>
+  </si>
+  <si>
+    <t>Cambio Stock</t>
   </si>
 </sst>
 </file>
@@ -232,13 +238,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,7 +542,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,11 +695,27 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="7" t="s">
         <v>23</v>

--- a/function/functionList_appCore.xlsx
+++ b/function/functionList_appCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD532366-FA67-4A1F-8325-CE3AB218BF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD02D0-6CED-418D-BAD9-BCCA18095E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco funzioni" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Codice</t>
   </si>
@@ -45,9 +45,6 @@
     <t>YSMR</t>
   </si>
   <si>
-    <t>YAX3M*</t>
-  </si>
-  <si>
     <t>Programma</t>
   </si>
   <si>
@@ -60,15 +57,9 @@
     <t>YCALCGIAC</t>
   </si>
   <si>
-    <t>YBPC</t>
-  </si>
-  <si>
     <t>YVSOH</t>
   </si>
   <si>
-    <t>YVBPC</t>
-  </si>
-  <si>
     <t>Entrate diverse</t>
   </si>
   <si>
@@ -90,10 +81,13 @@
     <t>Ricerca Cliente</t>
   </si>
   <si>
-    <t>**Backend</t>
-  </si>
-  <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>YCSTK</t>
+  </si>
+  <si>
+    <t>Cambio Stock</t>
   </si>
   <si>
     <r>
@@ -115,14 +109,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: dividere per Area (Backend,STOCK, ODV, CRM,… ecc)?</t>
+      <t>: dividere per Area (STOCK, ODV, CRM,… ecc)?</t>
     </r>
   </si>
   <si>
-    <t>YCSTK</t>
-  </si>
-  <si>
-    <t>Cambio Stock</t>
+    <t>YAX3M</t>
+  </si>
+  <si>
+    <t>YBPC / YAX3MBPC</t>
+  </si>
+  <si>
+    <t>YVBPC / YX3MVBPC</t>
   </si>
 </sst>
 </file>
@@ -170,10 +167,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -181,52 +217,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -236,28 +233,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,183 +546,193 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" customWidth="1"/>
-    <col min="6" max="6" width="82.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="6" max="6" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/function/functionList_appCore.xlsx
+++ b/function/functionList_appCore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD02D0-6CED-418D-BAD9-BCCA18095E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93136520-644A-4DBA-8A8C-78DCC7641998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Codice</t>
   </si>
@@ -42,24 +42,9 @@
     <t>Cod Azione</t>
   </si>
   <si>
-    <t>YSMR</t>
-  </si>
-  <si>
     <t>Programma</t>
   </si>
   <si>
-    <t>YSMO</t>
-  </si>
-  <si>
-    <t>YSOH</t>
-  </si>
-  <si>
-    <t>YCALCGIAC</t>
-  </si>
-  <si>
-    <t>YVSOH</t>
-  </si>
-  <si>
     <t>Entrate diverse</t>
   </si>
   <si>
@@ -84,49 +69,47 @@
     <t>Note</t>
   </si>
   <si>
-    <t>YCSTK</t>
-  </si>
-  <si>
     <t>Cambio Stock</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: dividere per Area (STOCK, ODV, CRM,… ecc)?</t>
-    </r>
-  </si>
-  <si>
     <t>YAX3M</t>
   </si>
   <si>
     <t>YBPC / YAX3MBPC</t>
   </si>
   <si>
-    <t>YVBPC / YX3MVBPC</t>
+    <t>YSMR/YAX3MSMR</t>
+  </si>
+  <si>
+    <t>YSMO/YAX3MSMO</t>
+  </si>
+  <si>
+    <t>YSOH/YAX3MSOH</t>
+  </si>
+  <si>
+    <t>YCALCGIAC/YAX3MVCG</t>
+  </si>
+  <si>
+    <t>YVSOH/YAX3MVSO</t>
+  </si>
+  <si>
+    <t>YCSTK/YAX3MCSK</t>
+  </si>
+  <si>
+    <t>YSTCKINV</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>YVBPC / YAX3MVBP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,23 +125,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,17 +149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -233,34 +204,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +514,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +523,7 @@
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
     <col min="6" max="6" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,177 +531,189 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
